--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Agtr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H2">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J2">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N2">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O2">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P2">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q2">
-        <v>0.1429915411873333</v>
+        <v>0.7190196041745556</v>
       </c>
       <c r="R2">
-        <v>1.286923870686</v>
+        <v>6.471176437571</v>
       </c>
       <c r="S2">
-        <v>0.009554464602502149</v>
+        <v>0.06209101956122499</v>
       </c>
       <c r="T2">
-        <v>0.009554464602502149</v>
+        <v>0.06209101956122498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H3">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I3">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J3">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N3">
         <v>27.664827</v>
       </c>
       <c r="O3">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P3">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q3">
-        <v>1.609530413251</v>
+        <v>1.119524849687667</v>
       </c>
       <c r="R3">
-        <v>14.485773719259</v>
+        <v>10.075723647189</v>
       </c>
       <c r="S3">
-        <v>0.1075462312830823</v>
+        <v>0.09667669551379703</v>
       </c>
       <c r="T3">
-        <v>0.1075462312830823</v>
+        <v>0.09667669551379704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.174539</v>
+        <v>0.1214023333333333</v>
       </c>
       <c r="H4">
-        <v>0.523617</v>
+        <v>0.364207</v>
       </c>
       <c r="I4">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="J4">
-        <v>0.2427616627057681</v>
+        <v>0.2856182748266287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N4">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O4">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P4">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q4">
-        <v>1.880634453133333</v>
+        <v>1.468940917808333</v>
       </c>
       <c r="R4">
-        <v>16.9257100782</v>
+        <v>13.220468260275</v>
       </c>
       <c r="S4">
-        <v>0.1256609668201837</v>
+        <v>0.1268505597516066</v>
       </c>
       <c r="T4">
-        <v>0.1256609668201837</v>
+        <v>0.1268505597516066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H5">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I5">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J5">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N5">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O5">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P5">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q5">
-        <v>0.4460287332397779</v>
+        <v>1.033727764922333</v>
       </c>
       <c r="R5">
-        <v>4.014258599158</v>
+        <v>9.303549884300999</v>
       </c>
       <c r="S5">
-        <v>0.02980292196344153</v>
+        <v>0.08926767851685977</v>
       </c>
       <c r="T5">
-        <v>0.02980292196344153</v>
+        <v>0.08926767851685975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5444336666666667</v>
+        <v>0.174539</v>
       </c>
       <c r="H6">
-        <v>1.633301</v>
+        <v>0.523617</v>
       </c>
       <c r="I6">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="J6">
-        <v>0.7572383372942318</v>
+        <v>0.4106307243130825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N6">
         <v>27.664827</v>
       </c>
       <c r="O6">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P6">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q6">
-        <v>5.020554400436334</v>
+        <v>1.609530413251</v>
       </c>
       <c r="R6">
-        <v>45.18498960392701</v>
+        <v>14.485773719259</v>
       </c>
       <c r="S6">
-        <v>0.335465363234749</v>
+        <v>0.138991181594115</v>
       </c>
       <c r="T6">
-        <v>0.335465363234749</v>
+        <v>0.1389911815941151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.174539</v>
+      </c>
+      <c r="H7">
+        <v>0.523617</v>
+      </c>
+      <c r="I7">
+        <v>0.4106307243130825</v>
+      </c>
+      <c r="J7">
+        <v>0.4106307243130825</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.099775</v>
+      </c>
+      <c r="N7">
+        <v>36.299325</v>
+      </c>
+      <c r="O7">
+        <v>0.4441262024588777</v>
+      </c>
+      <c r="P7">
+        <v>0.4441262024588777</v>
+      </c>
+      <c r="Q7">
+        <v>2.111882628725</v>
+      </c>
+      <c r="R7">
+        <v>19.006943658525</v>
+      </c>
+      <c r="S7">
+        <v>0.1823718642021076</v>
+      </c>
+      <c r="T7">
+        <v>0.1823718642021076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.387329</v>
+      </c>
+      <c r="I8">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J8">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.922617666666667</v>
+      </c>
+      <c r="N8">
+        <v>17.767853</v>
+      </c>
+      <c r="O8">
+        <v>0.2173916203328182</v>
+      </c>
+      <c r="P8">
+        <v>0.2173916203328182</v>
+      </c>
+      <c r="Q8">
+        <v>0.7646671927374443</v>
+      </c>
+      <c r="R8">
+        <v>6.882004734636999</v>
+      </c>
+      <c r="S8">
+        <v>0.06603292225473346</v>
+      </c>
+      <c r="T8">
+        <v>0.06603292225473345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5444336666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.633301</v>
-      </c>
-      <c r="I7">
-        <v>0.7572383372942318</v>
-      </c>
-      <c r="J7">
-        <v>0.7572383372942318</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.77486666666667</v>
-      </c>
-      <c r="N7">
-        <v>32.3246</v>
-      </c>
-      <c r="O7">
-        <v>0.517631018916225</v>
-      </c>
-      <c r="P7">
-        <v>0.517631018916225</v>
-      </c>
-      <c r="Q7">
-        <v>5.866200167177779</v>
-      </c>
-      <c r="R7">
-        <v>52.79580150460001</v>
-      </c>
-      <c r="S7">
-        <v>0.3919700520960413</v>
-      </c>
-      <c r="T7">
-        <v>0.3919700520960413</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.387329</v>
+      </c>
+      <c r="I9">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J9">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.221608999999999</v>
+      </c>
+      <c r="N9">
+        <v>27.664827</v>
+      </c>
+      <c r="O9">
+        <v>0.3384821772083041</v>
+      </c>
+      <c r="P9">
+        <v>0.3384821772083041</v>
+      </c>
+      <c r="Q9">
+        <v>1.190598864120333</v>
+      </c>
+      <c r="R9">
+        <v>10.715389777083</v>
+      </c>
+      <c r="S9">
+        <v>0.102814300100392</v>
+      </c>
+      <c r="T9">
+        <v>0.1028143001003921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1291096666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.387329</v>
+      </c>
+      <c r="I10">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="J10">
+        <v>0.3037510008602889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.099775</v>
+      </c>
+      <c r="N10">
+        <v>36.299325</v>
+      </c>
+      <c r="O10">
+        <v>0.4441262024588777</v>
+      </c>
+      <c r="P10">
+        <v>0.4441262024588777</v>
+      </c>
+      <c r="Q10">
+        <v>1.562197916991667</v>
+      </c>
+      <c r="R10">
+        <v>14.059781252925</v>
+      </c>
+      <c r="S10">
+        <v>0.1349037785051634</v>
+      </c>
+      <c r="T10">
+        <v>0.1349037785051634</v>
       </c>
     </row>
   </sheetData>
